--- a/pm10/_01processing/_01code/_00-9populationDensity.xlsx
+++ b/pm10/_01processing/_01code/_00-9populationDensity.xlsx
@@ -2110,6 +2110,77 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257174" y="209550"/>
+          <a:ext cx="1371601" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>#N/A </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>제거해야 함</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2399,7 +2470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -18367,6 +18440,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pm10/_01processing/_01code/_00-9populationDensity.xlsx
+++ b/pm10/_01processing/_01code/_00-9populationDensity.xlsx
@@ -2122,8 +2122,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2133,7 +2133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257174" y="209550"/>
-          <a:ext cx="1371601" cy="352425"/>
+          <a:ext cx="1371601" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2172,6 +2172,13 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>제거해야 함</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>데이터 타입 변경</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2470,9 +2477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
